--- a/April'21/22.04.2021/Daily Sales Info.xlsx
+++ b/April'21/22.04.2021/Daily Sales Info.xlsx
@@ -36861,8 +36861,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
